--- a/SIM Card Details/Idea/PROTECH PROGRESSIVE TECHNOLOGIES numbers (Idea).xlsx
+++ b/SIM Card Details/Idea/PROTECH PROGRESSIVE TECHNOLOGIES numbers (Idea).xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="486">
   <si>
     <t>COMPANY_NAME</t>
   </si>
@@ -2046,7 +2046,7 @@
   <dimension ref="A1:K411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B391" sqref="B391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12451,8 +12451,8 @@
       <c r="A390" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B390" s="21" t="s">
-        <v>456</v>
+      <c r="B390" s="21">
+        <v>5755000635928</v>
       </c>
       <c r="C390" s="9">
         <v>74564842</v>
@@ -12469,7 +12469,7 @@
       <c r="G390" s="9"/>
       <c r="H390" s="9">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:8">

--- a/SIM Card Details/Idea/PROTECH PROGRESSIVE TECHNOLOGIES numbers (Idea).xlsx
+++ b/SIM Card Details/Idea/PROTECH PROGRESSIVE TECHNOLOGIES numbers (Idea).xlsx
@@ -19,11 +19,13 @@
     <sheet name="Need to Verify SIM Status COMP" sheetId="6" r:id="rId5"/>
     <sheet name="Numbers need to Cancel" sheetId="7" r:id="rId6"/>
     <sheet name="New VI SIMS(29-Sep-2021)" sheetId="8" r:id="rId7"/>
+    <sheet name="New VI SIMS(08-Feb-2022)" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Available SIMS'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Idea SIM'!$A$1:$K$411</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Need to Verify SIM Status COMP'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'New VI SIMS(08-Feb-2022)'!$A$1:$C$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'New VI SIMS(29-Sep-2021)'!$A$1:$C$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Not Available SIMs'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Numbers need to Cancel'!$A$1:$I$1</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="565">
   <si>
     <t>COMPANY_NAME</t>
   </si>
@@ -1492,13 +1494,1097 @@
   </si>
   <si>
     <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>SNO </t>
+  </si>
+  <si>
+    <r>
+      <t>CELL NO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SIM NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653897</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707297</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653898</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707298</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707299</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653902</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653903</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653904</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653905</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707305</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653906</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653907</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707307</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653908</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707308</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653909</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707309</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653910</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653911</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707311</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653912</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707312</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653913</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707313</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653914</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707314</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653915</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707315</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653916</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707316</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653917</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707317</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653918</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707318</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653919</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707319</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653920</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707320</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5755000653921</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>899113012060707321</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Customer id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,6 +2648,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2043,10 +3135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K411"/>
+  <dimension ref="A1:K436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B391" sqref="B391"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2057,7 +3149,9 @@
     <col min="4" max="4" width="41.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="21.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="9" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2338,7 +3432,7 @@
       </c>
       <c r="K10" s="9">
         <f>COUNTIF(C:C,J10)</f>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2506,7 +3600,7 @@
       </c>
       <c r="K15" s="26">
         <f>SUM(K10:K14)</f>
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -12391,7 +13485,9 @@
       <c r="F387" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G387" s="9"/>
+      <c r="G387" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H387" s="9">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -12416,9 +13512,11 @@
       <c r="F388" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="G388" s="9"/>
+      <c r="G388" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H388" s="9">
-        <f t="shared" ref="H388:H411" si="7">LEN(B:B)</f>
+        <f t="shared" ref="H388:H436" si="7">LEN(B:B)</f>
         <v>13</v>
       </c>
     </row>
@@ -12441,7 +13539,9 @@
       <c r="F389" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="G389" s="9"/>
+      <c r="G389" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H389" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12466,7 +13566,9 @@
       <c r="F390" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="G390" s="9"/>
+      <c r="G390" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H390" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12491,7 +13593,9 @@
       <c r="F391" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="G391" s="9"/>
+      <c r="G391" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H391" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12516,7 +13620,9 @@
       <c r="F392" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="G392" s="9"/>
+      <c r="G392" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H392" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12541,7 +13647,9 @@
       <c r="F393" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G393" s="9"/>
+      <c r="G393" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H393" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12566,7 +13674,9 @@
       <c r="F394" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="G394" s="9"/>
+      <c r="G394" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H394" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12591,7 +13701,9 @@
       <c r="F395" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="G395" s="9"/>
+      <c r="G395" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H395" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12616,7 +13728,9 @@
       <c r="F396" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="G396" s="9"/>
+      <c r="G396" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H396" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12641,7 +13755,9 @@
       <c r="F397" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="G397" s="9"/>
+      <c r="G397" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H397" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12666,7 +13782,9 @@
       <c r="F398" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="G398" s="9"/>
+      <c r="G398" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H398" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12691,7 +13809,9 @@
       <c r="F399" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="G399" s="9"/>
+      <c r="G399" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H399" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12716,7 +13836,9 @@
       <c r="F400" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="G400" s="9"/>
+      <c r="G400" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H400" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12741,7 +13863,9 @@
       <c r="F401" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="G401" s="9"/>
+      <c r="G401" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H401" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12766,7 +13890,9 @@
       <c r="F402" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="G402" s="9"/>
+      <c r="G402" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H402" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12791,7 +13917,9 @@
       <c r="F403" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="G403" s="9"/>
+      <c r="G403" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H403" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12816,7 +13944,9 @@
       <c r="F404" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="G404" s="9"/>
+      <c r="G404" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H404" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12841,7 +13971,9 @@
       <c r="F405" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G405" s="9"/>
+      <c r="G405" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H405" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12866,7 +13998,9 @@
       <c r="F406" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="G406" s="9"/>
+      <c r="G406" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H406" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12891,7 +14025,9 @@
       <c r="F407" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="G407" s="9"/>
+      <c r="G407" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H407" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12916,7 +14052,9 @@
       <c r="F408" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G408" s="9"/>
+      <c r="G408" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H408" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12941,7 +14079,9 @@
       <c r="F409" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G409" s="9"/>
+      <c r="G409" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H409" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12966,7 +14106,9 @@
       <c r="F410" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="G410" s="9"/>
+      <c r="G410" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H410" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
@@ -12991,13 +14133,691 @@
       <c r="F411" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="G411" s="9"/>
+      <c r="G411" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H411" s="9">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
+    <row r="412" spans="1:8">
+      <c r="A412" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B412" s="21">
+        <v>5755000653897</v>
+      </c>
+      <c r="C412" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D412" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E412" s="21">
+        <v>5755000653897</v>
+      </c>
+      <c r="F412" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="G412" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H412" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B413" s="21">
+        <v>5755000653898</v>
+      </c>
+      <c r="C413" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D413" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E413" s="21">
+        <v>5755000653898</v>
+      </c>
+      <c r="F413" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G413" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H413" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B414" s="21">
+        <v>5755000653899</v>
+      </c>
+      <c r="C414" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D414" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E414" s="21">
+        <v>5755000653899</v>
+      </c>
+      <c r="F414" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="G414" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H414" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B415" s="21">
+        <v>5755000653900</v>
+      </c>
+      <c r="C415" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E415" s="21">
+        <v>5755000653900</v>
+      </c>
+      <c r="F415" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="G415" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H415" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="A416" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B416" s="21">
+        <v>5755000653901</v>
+      </c>
+      <c r="C416" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E416" s="21">
+        <v>5755000653901</v>
+      </c>
+      <c r="F416" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="G416" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H416" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="A417" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B417" s="21">
+        <v>5755000653902</v>
+      </c>
+      <c r="C417" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D417" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E417" s="21">
+        <v>5755000653902</v>
+      </c>
+      <c r="F417" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="G417" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H417" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="A418" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B418" s="21">
+        <v>5755000653903</v>
+      </c>
+      <c r="C418" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D418" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E418" s="21">
+        <v>5755000653903</v>
+      </c>
+      <c r="F418" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="G418" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H418" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="A419" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B419" s="21">
+        <v>5755000653904</v>
+      </c>
+      <c r="C419" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E419" s="21">
+        <v>5755000653904</v>
+      </c>
+      <c r="F419" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="G419" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H419" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="A420" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B420" s="21">
+        <v>5755000653905</v>
+      </c>
+      <c r="C420" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D420" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E420" s="21">
+        <v>5755000653905</v>
+      </c>
+      <c r="F420" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="G420" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H420" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="A421" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B421" s="21">
+        <v>5755000653906</v>
+      </c>
+      <c r="C421" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D421" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E421" s="21">
+        <v>5755000653906</v>
+      </c>
+      <c r="F421" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G421" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H421" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="A422" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B422" s="21">
+        <v>5755000653907</v>
+      </c>
+      <c r="C422" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D422" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E422" s="21">
+        <v>5755000653907</v>
+      </c>
+      <c r="F422" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="G422" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H422" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B423" s="21">
+        <v>5755000653908</v>
+      </c>
+      <c r="C423" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D423" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E423" s="21">
+        <v>5755000653908</v>
+      </c>
+      <c r="F423" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="G423" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H423" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="A424" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B424" s="21">
+        <v>5755000653909</v>
+      </c>
+      <c r="C424" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D424" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E424" s="21">
+        <v>5755000653909</v>
+      </c>
+      <c r="F424" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G424" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H424" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="A425" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B425" s="21">
+        <v>5755000653910</v>
+      </c>
+      <c r="C425" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D425" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E425" s="21">
+        <v>5755000653910</v>
+      </c>
+      <c r="F425" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="G425" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H425" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B426" s="21">
+        <v>5755000653911</v>
+      </c>
+      <c r="C426" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D426" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E426" s="21">
+        <v>5755000653911</v>
+      </c>
+      <c r="F426" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="G426" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H426" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B427" s="21">
+        <v>5755000653912</v>
+      </c>
+      <c r="C427" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D427" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E427" s="21">
+        <v>5755000653912</v>
+      </c>
+      <c r="F427" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="G427" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H427" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B428" s="21">
+        <v>5755000653913</v>
+      </c>
+      <c r="C428" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D428" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E428" s="21">
+        <v>5755000653913</v>
+      </c>
+      <c r="F428" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="G428" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H428" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B429" s="21">
+        <v>5755000653914</v>
+      </c>
+      <c r="C429" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D429" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E429" s="21">
+        <v>5755000653914</v>
+      </c>
+      <c r="F429" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="G429" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H429" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B430" s="21">
+        <v>5755000653915</v>
+      </c>
+      <c r="C430" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E430" s="21">
+        <v>5755000653915</v>
+      </c>
+      <c r="F430" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="G430" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H430" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B431" s="21">
+        <v>5755000653916</v>
+      </c>
+      <c r="C431" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D431" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E431" s="21">
+        <v>5755000653916</v>
+      </c>
+      <c r="F431" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="G431" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H431" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B432" s="21">
+        <v>5755000653917</v>
+      </c>
+      <c r="C432" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D432" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E432" s="21">
+        <v>5755000653917</v>
+      </c>
+      <c r="F432" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="G432" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H432" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B433" s="21">
+        <v>5755000653918</v>
+      </c>
+      <c r="C433" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D433" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E433" s="21">
+        <v>5755000653918</v>
+      </c>
+      <c r="F433" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="G433" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H433" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B434" s="21">
+        <v>5755000653919</v>
+      </c>
+      <c r="C434" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D434" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E434" s="21">
+        <v>5755000653919</v>
+      </c>
+      <c r="F434" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="G434" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H434" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B435" s="21">
+        <v>5755000653920</v>
+      </c>
+      <c r="C435" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D435" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E435" s="21">
+        <v>5755000653920</v>
+      </c>
+      <c r="F435" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="G435" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H435" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B436" s="21">
+        <v>5755000653921</v>
+      </c>
+      <c r="C436" s="6">
+        <v>74564842</v>
+      </c>
+      <c r="D436" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E436" s="21">
+        <v>5755000653921</v>
+      </c>
+      <c r="F436" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="G436" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H436" s="9">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K411"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19764,7 +21584,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20141,4 +21961,392 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D9" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="D10" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="D11" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D14" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D15" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D16" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D17" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D18" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="D20" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="D21" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="D22" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="D23" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="D24" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="D25" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D26" s="15">
+        <v>74564842</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>